--- a/tests/input2_measures.xlsx
+++ b/tests/input2_measures.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ssi.govt.nz\userss\sanas001\Documents\Simon's Documents\GDAT tool\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Preparing the dataset assembly tool for publication\GDAT tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF3B97-C417-4152-848A-2F4FE2A185EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Database_name</t>
   </si>
@@ -139,12 +138,27 @@
   </si>
   <si>
     <t>"num_accidents"</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>"avg_payment"</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>"dist_payments"</t>
+  </si>
+  <si>
+    <t>"avg_payment_prop"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,26 +469,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -538,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -570,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -602,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -634,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -666,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -698,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -730,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -762,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -794,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -826,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -856,6 +872,102 @@
       </c>
       <c r="J12" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
